--- a/helpdesk/src/test/resources/TestData.xlsx
+++ b/helpdesk/src/test/resources/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Data1</t>
   </si>
@@ -27,59 +27,106 @@
     <t>Data3</t>
   </si>
   <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Add Profile</t>
-  </si>
-  <si>
-    <t>hjkh</t>
-  </si>
-  <si>
-    <t>khhk</t>
-  </si>
-  <si>
-    <t>bkjjbk</t>
-  </si>
-  <si>
-    <t>hbh</t>
-  </si>
-  <si>
-    <t>ggv</t>
-  </si>
-  <si>
-    <t>gjvj</t>
-  </si>
-  <si>
-    <t>gtf</t>
-  </si>
-  <si>
     <t>TestCase</t>
   </si>
   <si>
-    <t>Purchase</t>
-  </si>
-  <si>
     <t>STATUSES</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>Status when a new ticket is created in HappyFox</t>
   </si>
   <si>
-    <t>Issue created_001</t>
+    <t>PRIORITIES</t>
+  </si>
+  <si>
+    <t>Priority of the newly created tickets</t>
+  </si>
+  <si>
+    <t>TICKETCREATION</t>
+  </si>
+  <si>
+    <t>WIFI ISSUE</t>
+  </si>
+  <si>
+    <t>WIFI is not working Properly</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>Reply to customer query</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>CANNED ACTION</t>
+  </si>
+  <si>
+    <t>shipment</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>HappyFox</t>
+  </si>
+  <si>
+    <t>Happyfox1234@gmail.com</t>
+  </si>
+  <si>
+    <t>Data5</t>
+  </si>
+  <si>
+    <t>Data4</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Welcome to our Support Center</t>
+  </si>
+  <si>
+    <t>Data6</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>STATUSESVERIFICATION</t>
+  </si>
+  <si>
+    <t>ISSUE CREATED_123</t>
+  </si>
+  <si>
+    <t>ASSISTANCE REQUIRED123</t>
+  </si>
+  <si>
+    <t>ISSUE CREATED_137</t>
+  </si>
+  <si>
+    <t>ASSISTANCE REQUIRED137</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,13 +149,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -408,22 +458,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -434,64 +487,107 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>7998797887</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
